--- a/filtered_data.xlsx
+++ b/filtered_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITU\bachelor_project\BSc_project_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F8D10E1C-24F0-417C-868C-85670C9DA4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F0C0BA07-F469-46E3-9238-83FD0AC63D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1DDB5E22-B2CC-41ED-824A-C0C932C9F1A4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
   <si>
     <t>Column1</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2221C423-916A-4F20-B39A-78C6EFE9241D}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1174,10 +1171,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
@@ -1272,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1364,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
@@ -1479,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1547,7 +1541,9 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -1568,7 +1564,9 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
@@ -1589,7 +1587,9 @@
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A21">
@@ -1610,7 +1610,9 @@
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
@@ -1631,7 +1633,9 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23">
@@ -1652,13 +1656,15 @@
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>282789</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24">
@@ -1673,13 +1679,15 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>185589</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25">
@@ -1694,13 +1702,15 @@
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>29736</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26">
@@ -1715,13 +1725,15 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>38278</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27">
@@ -1736,13 +1748,15 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>156200</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28">
@@ -1757,13 +1771,15 @@
       <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>272393</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29">
@@ -1778,13 +1794,15 @@
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>284620</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30">
@@ -1799,13 +1817,15 @@
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>95211</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31">
@@ -1820,13 +1840,15 @@
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>268741</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32">
@@ -1841,13 +1863,15 @@
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>60228</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33">
@@ -1862,13 +1886,15 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>30045</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34">
@@ -1883,13 +1909,15 @@
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>237275</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35">
@@ -1904,13 +1932,15 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>100920</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36">
@@ -1925,13 +1955,15 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>101460</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37">
@@ -1946,13 +1978,15 @@
       <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>279488</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C38">
@@ -1967,13 +2001,15 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>11615</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C39">
@@ -1988,13 +2024,15 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>241370</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C40">
@@ -2009,13 +2047,15 @@
       <c r="F40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>13832</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C41">
@@ -2030,13 +2070,15 @@
       <c r="F41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>155403</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C42">
@@ -2051,13 +2093,15 @@
       <c r="F42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>129603</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C43">
@@ -2072,13 +2116,15 @@
       <c r="F43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>264343</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C44">
@@ -2093,7 +2139,9 @@
       <c r="F44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
